--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>功能描述</t>
   </si>
@@ -43,12 +43,12 @@
     <t>试客注册时需要上传淘宝号和支付宝号相应截图</t>
   </si>
   <si>
+    <t>后台试客列表需要有对申请试客的审批功能</t>
+  </si>
+  <si>
     <t>未完成</t>
   </si>
   <si>
-    <t>后台试客列表需要有对申请试客的审批功能</t>
-  </si>
-  <si>
     <t>未安排</t>
   </si>
   <si>
@@ -224,6 +224,26 @@
   </si>
   <si>
     <t>需求不清楚、设计未完成</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>PC端首页调到登陆页面，手机端首页跳到试客页面</t>
+  </si>
+  <si>
+    <t>商家申述功能</t>
+  </si>
+  <si>
+    <t>在商家查看试客情况的页面，提供商家申述功能，提供申诉原因，商家申诉则活动挂起，
+并且订单变成申诉状态，同时发短信给试客，并且订单变成申诉状态，商家的活动不结算，等商家取消申诉，在进行结算。
+试客要在挂起时，能修改订单号和订单图片、好评语句和好评图片</t>
+  </si>
+  <si>
+    <t>商家打赏功能</t>
+  </si>
+  <si>
+    <t>商家指定每个货品打赏多少钱，结算的时候体现，试客返现的时候增加</t>
   </si>
 </sst>
 </file>
@@ -232,9 +252,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -246,16 +266,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,7 +303,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,8 +325,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +357,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,92 +408,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -410,181 +430,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,31 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +672,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -681,17 +705,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,137 +735,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,14 +878,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1215,16 +1241,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D64" sqref="D63:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="2" max="2" width="114.75" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="23.375" customWidth="1"/>
   </cols>
@@ -1257,61 +1283,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5">
-        <v>43432</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:4">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:4">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1549,7 +1575,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
@@ -1621,14 +1647,14 @@
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:4">
-      <c r="A46" s="4"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="5">
+        <v>10</v>
+      </c>
+      <c r="D46" s="7">
         <v>43401</v>
       </c>
     </row>
@@ -1637,9 +1663,9 @@
         <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="5">
+        <v>10</v>
+      </c>
+      <c r="D47" s="7">
         <v>43401</v>
       </c>
     </row>
@@ -1664,7 +1690,7 @@
         <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -1683,7 +1709,7 @@
         <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -1694,9 +1720,9 @@
         <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="5">
+        <v>10</v>
+      </c>
+      <c r="D53" s="7">
         <v>43401</v>
       </c>
     </row>
@@ -1705,7 +1731,7 @@
         <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>11</v>
@@ -1720,7 +1746,7 @@
         <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>11</v>
@@ -1731,7 +1757,7 @@
         <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>11</v>
@@ -1742,7 +1768,7 @@
         <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
@@ -1753,10 +1779,34 @@
         <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" ht="40.5" spans="1:2">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -251,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -266,12 +266,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -288,24 +356,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,14 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -333,8 +379,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,13 +396,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -368,46 +408,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -430,181 +430,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,6 +615,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,45 +701,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -689,32 +715,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,133 +735,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,8 +1243,8 @@
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D64" sqref="D63:D64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>功能描述</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>商家指定每个货品打赏多少钱，结算的时候体现，试客返现的时候增加</t>
+  </si>
+  <si>
+    <t>必中限制功能</t>
+  </si>
+  <si>
+    <t>如果当前时间段没有货物了，就不让申请了</t>
   </si>
 </sst>
 </file>
@@ -251,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -266,7 +272,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,19 +357,13 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -303,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,9 +385,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,53 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -386,28 +414,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -430,37 +436,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +574,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,127 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,17 +624,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,15 +659,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,26 +680,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,15 +721,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,133 +741,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1809,6 +1815,14 @@
         <v>75</v>
       </c>
     </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A7"/>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>功能描述</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>如果当前时间段没有货物了，就不让申请了</t>
+  </si>
+  <si>
+    <t>充值管理</t>
+  </si>
+  <si>
+    <t>增加商家账号和驳回功能，驳回功能需要记录驳回原因和发送站内通知</t>
   </si>
 </sst>
 </file>
@@ -257,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -275,6 +281,66 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,22 +353,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,15 +368,46 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,82 +420,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -436,181 +442,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,24 +632,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +675,39 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -701,26 +727,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -729,145 +735,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1823,6 +1829,14 @@
         <v>77</v>
       </c>
     </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A7"/>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -264,9 +264,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -277,6 +277,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -285,14 +338,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,100 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,11 +407,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -442,6 +442,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,169 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,11 +632,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,26 +699,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,41 +719,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,137 +747,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +885,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -899,7 +902,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1255,8 +1261,8 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1285,7 +1291,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1296,19 +1302,19 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>43432</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:4">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1326,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:4">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1338,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:4">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1344,7 +1350,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:4">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1357,7 +1363,7 @@
     </row>
     <row r="8" s="1" customFormat="1"/>
     <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1368,7 +1374,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1549,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1551,7 +1557,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1559,7 +1565,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1602,7 +1608,7 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
@@ -1621,7 +1627,7 @@
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1632,7 +1638,7 @@
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
@@ -1641,7 +1647,7 @@
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
@@ -1650,7 +1656,7 @@
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
@@ -1658,26 +1664,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:4">
-      <c r="A46" s="5"/>
-      <c r="B46" s="2" t="s">
+    <row r="46" s="3" customFormat="1" spans="1:4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="9">
         <v>43401</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:4">
-      <c r="A47" s="2" t="s">
+    <row r="47" s="3" customFormat="1" spans="1:4">
+      <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="9">
         <v>43401</v>
       </c>
     </row>
@@ -1727,14 +1733,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:4">
-      <c r="A53" s="2" t="s">
+    <row r="53" s="1" customFormat="1" spans="1:4">
+      <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="7">
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5">
         <v>43401</v>
       </c>
     </row>
@@ -1797,19 +1803,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="61" s="1" customFormat="1" spans="1:4">
+      <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="9">
+        <v>43402</v>
       </c>
     </row>
     <row r="62" ht="40.5" spans="1:2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1829,12 +1841,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+    <row r="66" s="1" customFormat="1" spans="1:4">
+      <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="9">
+        <v>43402</v>
       </c>
     </row>
   </sheetData>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>功能描述</t>
   </si>
@@ -256,6 +256,75 @@
   </si>
   <si>
     <t>增加商家账号和驳回功能，驳回功能需要记录驳回原因和发送站内通知</t>
+  </si>
+  <si>
+    <t>商家后台</t>
+  </si>
+  <si>
+    <t>广告位，自己的活动入口，别人的连接</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>订单查询，未结算查询和已经结算查询</t>
+  </si>
+  <si>
+    <t>对比订单，导入淘宝订单号，第一列为订单号数据，比对那些是已经下单的</t>
+  </si>
+  <si>
+    <t>审核活动的时候同时审核店铺，活动列表加个店铺状态</t>
+  </si>
+  <si>
+    <t>商家后台、管理端</t>
+  </si>
+  <si>
+    <t>订单图无法显示</t>
+  </si>
+  <si>
+    <t>试客端</t>
+  </si>
+  <si>
+    <t>公众号绑定</t>
+  </si>
+  <si>
+    <t>捡漏专场</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>流程更改，好评默认16天自动好评，没有图片。商家自己查看。</t>
+  </si>
+  <si>
+    <t>管理后台</t>
+  </si>
+  <si>
+    <t>提现四舍五入</t>
+  </si>
+  <si>
+    <t>提现状态</t>
+  </si>
+  <si>
+    <t>爆款维护不要预热</t>
+  </si>
+  <si>
+    <t>好评晒图增值功能，单独领出来</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>会员体系，黄金vip</t>
+  </si>
+  <si>
+    <t>红包试用</t>
+  </si>
+  <si>
+    <t>货比三家，搜索前的货比三家，货比三家的人，商家要查看，一次活动增值费20元</t>
+  </si>
+  <si>
+    <t>试客中奖名额和概率</t>
   </si>
 </sst>
 </file>
@@ -263,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -274,52 +343,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,18 +368,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,10 +384,78 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,9 +467,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,20 +489,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -442,181 +511,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,36 +704,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,11 +740,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,15 +796,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +816,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1259,10 +1328,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1855,6 +1924,195 @@
         <v>43402</v>
       </c>
     </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A7"/>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -332,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -347,14 +347,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,10 +383,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,14 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,29 +454,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +476,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,37 +511,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,139 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,6 +704,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,6 +779,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -772,30 +796,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -804,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,19 +816,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,112 +837,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1330,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2032,20 +2032,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>93</v>
       </c>
       <c r="B82" t="s">
         <v>94</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2">

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="3" r:id="rId1"/>
@@ -332,9 +332,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -347,7 +347,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,46 +434,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,23 +466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,21 +489,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -511,43 +511,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,133 +673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,23 +702,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,30 +728,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,15 +749,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -796,6 +757,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -804,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,133 +816,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1330,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82:D82"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2032,17 +2032,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+    <row r="82" s="1" customFormat="1" spans="1:4">
+      <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2095,14 +2095,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
-      <c r="B89" t="s">
+    <row r="89" s="1" customFormat="1" spans="2:4">
+      <c r="B89" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>82</v>
       </c>
     </row>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>功能描述</t>
   </si>
@@ -325,6 +325,34 @@
   </si>
   <si>
     <t>试客中奖名额和概率</t>
+  </si>
+  <si>
+    <t>试客淘宝号信息查询</t>
+  </si>
+  <si>
+    <t>https://www.taodaxiang.com/credit2</t>
+  </si>
+  <si>
+    <t>管理后台，活动管理里面</t>
+  </si>
+  <si>
+    <t>1、序号改成活动ID，同时增加个一个活动ID查询，2、增加商家名称查询，3、增加店铺名称查询</t>
+  </si>
+  <si>
+    <t>试客使用情况</t>
+  </si>
+  <si>
+    <t>增加状态查询</t>
+  </si>
+  <si>
+    <t>试客列表</t>
+  </si>
+  <si>
+    <t>试客列表里面，还缺了试客账号对应的，淘宝账号，还有支付宝账号</t>
+  </si>
+  <si>
+    <t>订单管理用这种形式，或者我们管理后台那种形式，
+加订单号，店铺，活动ID，活动名称，试客淘宝号，试客号查询</t>
   </si>
 </sst>
 </file>
@@ -347,12 +375,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -360,8 +405,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,7 +461,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,16 +489,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,78 +505,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,181 +539,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,6 +732,26 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,17 +795,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -769,15 +806,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,137 +844,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,6 +1004,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1039,6 +1070,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8114030</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="{59E1253E-5609-30AB-D5CD-0105C6B86F4A}"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="15954375"/>
+          <a:ext cx="8104505" cy="3256915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1328,10 +1402,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2004,17 +2078,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+    <row r="77" s="1" customFormat="1" spans="1:4">
+      <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2109,6 +2183,49 @@
     <row r="90" spans="2:2">
       <c r="B90" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" ht="27" spans="2:2">
+      <c r="B117" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2120,5 +2237,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>功能描述</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>真实姓名</t>
+  </si>
+  <si>
+    <t>高2018/11/10</t>
   </si>
   <si>
     <t>流程更改，好评默认16天自动好评，没有图片。商家自己查看。</t>
@@ -360,10 +363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -375,7 +378,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,93 +445,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,21 +461,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,181 +542,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,11 +739,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,37 +808,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,21 +827,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -832,10 +835,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,137 +847,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,8 +1008,11 @@
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1404,8 +1410,8 @@
   <sheetPr/>
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1960,20 +1966,32 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="62" ht="40.5" spans="1:2">
-      <c r="A62" t="s">
+    <row r="62" s="1" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="11">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:4">
+      <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="11">
+        <v>43414</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2012,17 +2030,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+    <row r="69" s="1" customFormat="1" spans="1:4">
+      <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2040,26 +2058,32 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+    <row r="71" s="1" customFormat="1" spans="1:4">
+      <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="72" s="1" customFormat="1" spans="1:4">
+      <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="11">
+        <v>43414</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2089,7 +2113,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2097,7 +2121,7 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
@@ -2108,10 +2132,10 @@
     </row>
     <row r="82" s="1" customFormat="1" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>7</v>
@@ -2122,10 +2146,10 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2133,45 +2157,45 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="B87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="2:4">
+      <c r="B88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:4">
       <c r="B89" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>7</v>
@@ -2182,50 +2206,53 @@
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>105</v>
-      </c>
-      <c r="B113" s="11" t="s">
         <v>106</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" ht="27" spans="2:2">
-      <c r="B117" s="11" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="27" spans="2:3">
+      <c r="B117" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -364,9 +364,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -377,15 +377,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,9 +392,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,25 +421,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,14 +438,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,6 +446,37 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -483,24 +491,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,14 +520,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -542,25 +542,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,145 +710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,8 +733,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,11 +769,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,17 +799,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,23 +822,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,10 +835,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,137 +847,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,6 +1012,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1410,8 +1413,8 @@
   <sheetPr/>
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A114" sqref="$A114:$XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2209,25 +2212,45 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
+    <row r="91" s="1" customFormat="1" spans="1:4">
+      <c r="A91" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>99</v>
       </c>
     </row>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
+    <row r="103" s="1" customFormat="1"/>
+    <row r="104" s="1" customFormat="1"/>
+    <row r="105" s="1" customFormat="1"/>
+    <row r="106" s="1" customFormat="1"/>
+    <row r="107" s="1" customFormat="1"/>
+    <row r="108" s="1" customFormat="1"/>
+    <row r="109" s="1" customFormat="1"/>
+    <row r="110" s="1" customFormat="1"/>
+    <row r="111" s="1" customFormat="1"/>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="13" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2239,11 +2262,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+    <row r="115" s="1" customFormat="1" spans="1:2">
+      <c r="A115" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2261,6 +2284,9 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A42:A46"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B91" r:id="rId2" display="https://www.taodaxiang.com/credit2"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="3" r:id="rId1"/>
@@ -46,13 +46,13 @@
     <t>后台试客列表需要有对申请试客的审批功能</t>
   </si>
   <si>
+    <t>试客的账号需要通过申请之后才能申请商品</t>
+  </si>
+  <si>
     <t>未完成</t>
   </si>
   <si>
     <t>未安排</t>
-  </si>
-  <si>
-    <t>试客的账号需要通过申请之后才能申请商品</t>
   </si>
   <si>
     <t>试客修改淘宝账号和支付宝账号时需要上传相应截图</t>
@@ -363,15 +363,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -406,6 +412,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -421,16 +465,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,7 +490,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -453,39 +498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,27 +512,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -542,19 +548,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +656,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,145 +692,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,21 +740,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -769,6 +775,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -784,37 +810,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,10 +841,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,137 +853,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,6 +994,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1014,10 +1023,13 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1413,8 +1425,8 @@
   <sheetPr/>
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A114" sqref="$A114:$XFD114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1443,7 +1455,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1454,68 +1466,59 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>43432</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1"/>
     <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1526,7 +1529,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1701,7 +1704,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1709,7 +1712,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1717,7 +1720,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1745,10 +1748,10 @@
         <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
@@ -1760,7 +1763,7 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:1">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
@@ -1779,7 +1782,7 @@
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1790,7 +1793,7 @@
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
@@ -1799,7 +1802,7 @@
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
@@ -1808,7 +1811,7 @@
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
-      <c r="A45" s="4"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
@@ -1817,14 +1820,14 @@
       </c>
     </row>
     <row r="46" s="3" customFormat="1" spans="1:4">
-      <c r="A46" s="8"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="10">
         <v>43401</v>
       </c>
     </row>
@@ -1835,7 +1838,7 @@
       <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="10">
         <v>43401</v>
       </c>
     </row>
@@ -1860,10 +1863,10 @@
         <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
@@ -1879,10 +1882,10 @@
         <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:4">
@@ -1892,7 +1895,7 @@
       <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="6">
         <v>43401</v>
       </c>
     </row>
@@ -1901,10 +1904,10 @@
         <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1"/>
@@ -1916,10 +1919,10 @@
         <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="2:4">
@@ -1927,10 +1930,10 @@
         <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="2:4">
@@ -1938,10 +1941,10 @@
         <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" spans="2:4">
@@ -1949,7 +1952,7 @@
         <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>69</v>
@@ -1965,7 +1968,7 @@
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="10">
         <v>43402</v>
       </c>
     </row>
@@ -1973,13 +1976,13 @@
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="12">
         <v>43414</v>
       </c>
     </row>
@@ -1993,7 +1996,7 @@
       <c r="C63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="12">
         <v>43414</v>
       </c>
     </row>
@@ -2015,7 +2018,7 @@
       <c r="C66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="10">
         <v>43402</v>
       </c>
     </row>
@@ -2027,7 +2030,7 @@
         <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
         <v>82</v>
@@ -2055,7 +2058,7 @@
         <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>82</v>
@@ -2085,7 +2088,7 @@
       <c r="C72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="12">
         <v>43414</v>
       </c>
     </row>
@@ -2127,7 +2130,7 @@
         <v>93</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
         <v>82</v>
@@ -2168,7 +2171,7 @@
         <v>98</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>99</v>
@@ -2179,7 +2182,7 @@
         <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
         <v>99</v>
@@ -2216,7 +2219,7 @@
       <c r="A91" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -2246,32 +2249,41 @@
     <row r="109" s="1" customFormat="1"/>
     <row r="110" s="1" customFormat="1"/>
     <row r="111" s="1" customFormat="1"/>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+    <row r="113" s="4" customFormat="1" spans="1:3">
+      <c r="A113" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+      <c r="C113" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" s="4" customFormat="1" spans="1:3">
+      <c r="A114" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="115" s="1" customFormat="1" spans="1:2">
+      <c r="C114" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="C115" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="117" s="1" customFormat="1" ht="27" spans="2:3">
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C117" s="1" t="s">

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>功能描述</t>
   </si>
@@ -356,6 +356,21 @@
   <si>
     <t>订单管理用这种形式，或者我们管理后台那种形式，
 加订单号，店铺，活动ID，活动名称，试客淘宝号，试客号查询</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>计划时间日期</t>
+  </si>
+  <si>
+    <t>推广码二维码</t>
+  </si>
+  <si>
+    <t>查询邀请的试客注册数、有效数</t>
+  </si>
+  <si>
+    <t>店铺激活功能</t>
   </si>
 </sst>
 </file>
@@ -364,9 +379,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -391,8 +406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,14 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,23 +437,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,9 +473,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,29 +526,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -512,20 +534,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -548,181 +563,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,30 +748,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -777,11 +768,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,6 +799,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -824,15 +848,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -841,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,16 +868,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,115 +886,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,11 +1041,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1423,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2250,10 +2265,10 @@
     <row r="110" s="1" customFormat="1"/>
     <row r="111" s="1" customFormat="1"/>
     <row r="113" s="4" customFormat="1" spans="1:3">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="14" t="s">
         <v>107</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -2261,10 +2276,10 @@
       </c>
     </row>
     <row r="114" s="4" customFormat="1" spans="1:3">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -2288,6 +2303,46 @@
       </c>
       <c r="C117" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" t="s">
+        <v>113</v>
+      </c>
+      <c r="C123" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" s="15">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125" s="15">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" s="15">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" t="s">
+        <v>117</v>
+      </c>
+      <c r="C127" s="15">
+        <v>43511</v>
       </c>
     </row>
   </sheetData>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>功能描述</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>店铺激活功能</t>
+  </si>
+  <si>
+    <t>管理员修改 --试客淘宝号</t>
+  </si>
+  <si>
+    <t>注册的时候 不用填淘宝号，在加购的是填淘宝号，没有淘宝号，不能中奖</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -406,9 +412,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,8 +463,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,83 +501,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,6 +524,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -563,31 +569,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,145 +683,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,25 +758,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,16 +797,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,15 +836,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,10 +862,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,16 +874,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,115 +892,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1438,10 +1444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2345,6 +2351,22 @@
         <v>43511</v>
       </c>
     </row>
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="15">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" t="s">
+        <v>119</v>
+      </c>
+      <c r="C131" s="15">
+        <v>43515</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A7"/>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>功能描述</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>注册的时候 不用填淘宝号，在加购的是填淘宝号，没有淘宝号，不能中奖</t>
+  </si>
+  <si>
+    <t>公众号关注功能  - 3月份做</t>
   </si>
 </sst>
 </file>
@@ -419,9 +422,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,21 +453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,8 +474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,6 +506,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -525,17 +530,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,13 +572,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,163 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,16 +761,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,26 +799,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,17 +834,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,10 +865,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,16 +877,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,112 +898,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,10 +1447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2367,6 +2370,11 @@
         <v>43515</v>
       </c>
     </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A7"/>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>功能描述</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>公众号关注功能  - 3月份做</t>
+  </si>
+  <si>
+    <t>null字段不美观，后续做</t>
   </si>
 </sst>
 </file>
@@ -410,13 +413,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,6 +449,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -474,9 +508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,9 +517,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,38 +533,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,8 +546,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,43 +575,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,133 +737,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,37 +802,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,8 +829,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,10 +868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,16 +880,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,115 +898,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2322,19 +2325,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
-      <c r="B124" t="s">
+    <row r="124" s="1" customFormat="1" spans="2:3">
+      <c r="B124" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C124" s="15">
+      <c r="C124" s="12">
         <v>43509</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
-      <c r="B125" t="s">
+    <row r="125" s="1" customFormat="1" spans="2:3">
+      <c r="B125" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C125" s="15">
+      <c r="C125" s="12">
         <v>43509</v>
       </c>
     </row>
@@ -2354,25 +2357,33 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
-      <c r="B130" t="s">
+    <row r="130" s="1" customFormat="1" spans="2:3">
+      <c r="B130" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C130" s="15">
+      <c r="C130" s="12">
         <v>43515</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
-      <c r="B131" t="s">
+    <row r="131" s="1" customFormat="1" spans="2:3">
+      <c r="B131" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C131" s="15">
+      <c r="C131" s="12">
         <v>43515</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:3">
       <c r="B132" t="s">
         <v>120</v>
+      </c>
+      <c r="C132" s="15">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/项目研发进度.xlsx
+++ b/项目研发进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>功能描述</t>
   </si>
@@ -383,6 +383,24 @@
   </si>
   <si>
     <t>null字段不美观，后续做</t>
+  </si>
+  <si>
+    <t>功能上线时间</t>
+  </si>
+  <si>
+    <t>工作时间（天）</t>
+  </si>
+  <si>
+    <t>必中流程修改</t>
+  </si>
+  <si>
+    <t>2019/3/3（周日）</t>
+  </si>
+  <si>
+    <t>邀请试客奖励修改</t>
+  </si>
+  <si>
+    <t>2019/3/4（周一）</t>
   </si>
 </sst>
 </file>
@@ -390,10 +408,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -418,6 +436,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -427,22 +461,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,7 +482,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +510,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -478,36 +526,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -523,17 +550,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,181 +593,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,6 +778,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -774,15 +816,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,8 +838,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,23 +862,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,10 +886,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,16 +898,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,115 +916,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,8 +1148,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8114030</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598805</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>8890</xdr:rowOff>
     </xdr:to>
@@ -1450,17 +1468,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="114.75" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2386,6 +2404,36 @@
         <v>121</v>
       </c>
     </row>
+    <row r="135" spans="3:4">
+      <c r="C135" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A7"/>
